--- a/Luban/LubanConfig/Datas/#TowerLevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerLevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124C7E1-C29A-4851-8B20-DCD8187128ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F74052E-13E5-4C52-83E4-5F5D58DB9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41115" yWindow="2715" windowWidth="19335" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2715" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,73 @@
   </si>
   <si>
     <t>Missile Array Des 1</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>炮塔Id</t>
+  </si>
+  <si>
+    <t>AssaultCannon_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssaultCannon_Level2</t>
+  </si>
+  <si>
+    <t>AssaultCannon_Level3</t>
+  </si>
+  <si>
+    <t>RocketPlatform_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketPlatform_Level2</t>
+  </si>
+  <si>
+    <t>RocketPlatform_Level3</t>
+  </si>
+  <si>
+    <t>PlasmaLance_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPylon_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpGenerator_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileArray_Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlasmaLance_Level2</t>
+  </si>
+  <si>
+    <t>PlasmaLance_Level3</t>
+  </si>
+  <si>
+    <t>EnergyPylon_Level2</t>
+  </si>
+  <si>
+    <t>EnergyPylon_Level3</t>
+  </si>
+  <si>
+    <t>EmpGenerator_Level2</t>
+  </si>
+  <si>
+    <t>EmpGenerator_Level3</t>
+  </si>
+  <si>
+    <t>NameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,20 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,40 +666,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -642,19 +713,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -669,13 +740,16 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -683,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -715,8 +789,11 @@
       <c r="N3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -726,38 +803,41 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10101</v>
       </c>
@@ -765,25 +845,25 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3013</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -792,13 +872,16 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10102</v>
       </c>
@@ -806,25 +889,25 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>3014</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1002</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -833,13 +916,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10103</v>
       </c>
@@ -847,26 +933,26 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3015</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1003</v>
       </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
       <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -874,13 +960,16 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>14</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10201</v>
       </c>
@@ -888,25 +977,25 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>3016</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -915,13 +1004,16 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>12</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10202</v>
       </c>
@@ -929,26 +1021,26 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3017</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1005</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -956,13 +1048,16 @@
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>24</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10203</v>
       </c>
@@ -970,26 +1065,26 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3018</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1006</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -997,13 +1092,16 @@
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>32</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10301</v>
       </c>
@@ -1011,26 +1109,26 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>3019</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1007</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1038,13 +1136,16 @@
         <v>0</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>15</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10302</v>
       </c>
@@ -1052,26 +1153,26 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>3020</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1008</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.35</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>14</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -1079,13 +1180,16 @@
         <v>0</v>
       </c>
       <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>30</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10303</v>
       </c>
@@ -1093,26 +1197,26 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>3021</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1009</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.4</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -1120,13 +1224,16 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>40</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10401</v>
       </c>
@@ -1134,20 +1241,20 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3022</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-1</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
@@ -1155,19 +1262,22 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.1</v>
       </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
       <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10402</v>
       </c>
@@ -1175,20 +1285,20 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>3023</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-1</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -1196,19 +1306,22 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.125</v>
       </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
       <c r="N15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>10403</v>
       </c>
@@ -1216,20 +1329,20 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>3024</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-1</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -1237,19 +1350,22 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.2</v>
       </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
       <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>10501</v>
       </c>
@@ -1257,40 +1373,43 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>3025</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.75</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>6</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>10502</v>
       </c>
@@ -1298,40 +1417,43 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>3026</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>6</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.65</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="N18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10503</v>
       </c>
@@ -1339,40 +1461,43 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>3027</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
         <v>0.65</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>10</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10601</v>
       </c>
@@ -1380,26 +1505,26 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>3028</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1010</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>16</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -1407,9 +1532,12 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>20</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-1</v>
       </c>
     </row>

--- a/Luban/LubanConfig/Datas/#TowerLevelData.xlsx
+++ b/Luban/LubanConfig/Datas/#TowerLevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F74052E-13E5-4C52-83E4-5F5D58DB9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFEB60-5ABA-4C96-BC91-42358A170F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2715" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,6 +653,7 @@
     <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
